--- a/data/trans_orig/P79_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB05C1F-D324-4291-BEDF-7C43C4DF5C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4F1C9E-177D-41FD-B412-9049214928CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B9B3263-60DC-4FBC-BB6F-5A4FC0C40511}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D97E9AA-7944-4294-BE35-111E61D03986}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="140">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>96,13%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>Sí, por otra persona desconocida</t>
@@ -104,10 +104,10 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -116,60 +116,63 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona conocida</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Sí, por algún familiar</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona conocida</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Sí, por algún familiar</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>0,11%</t>
   </si>
   <si>
@@ -182,268 +185,274 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F72373B-73F1-4428-B7A7-AB2F2537A947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226494BF-E00E-49AD-BDE4-DA0DDB73DDE3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1102,10 +1111,10 @@
         <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1114,19 +1123,19 @@
         <v>6314</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1135,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1150,13 +1159,13 @@
         <v>1524</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -1165,19 +1174,19 @@
         <v>1524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1186,13 +1195,13 @@
         <v>1701</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1201,13 +1210,13 @@
         <v>729</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1216,10 +1225,10 @@
         <v>2430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>52</v>
@@ -1326,7 +1335,7 @@
         <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1341,13 +1350,13 @@
         <v>22322</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -1356,13 +1365,13 @@
         <v>10400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -1371,13 +1380,13 @@
         <v>32722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1395,10 +1404,10 @@
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -1407,13 +1416,13 @@
         <v>12460</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -1422,19 +1431,19 @@
         <v>24847</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>4</v>
@@ -1446,10 +1455,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1458,13 +1467,13 @@
         <v>3135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1473,19 +1482,19 @@
         <v>7961</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1494,13 +1503,13 @@
         <v>1394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -1509,13 +1518,13 @@
         <v>11733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -1524,13 +1533,13 @@
         <v>13127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1586,7 +1595,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1598,13 +1607,13 @@
         <v>663824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>990</v>
@@ -1613,13 +1622,13 @@
         <v>702234</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>1661</v>
@@ -1628,13 +1637,13 @@
         <v>1366058</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,13 +1658,13 @@
         <v>3154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1664,13 +1673,13 @@
         <v>6544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1679,13 +1688,13 @@
         <v>9698</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,13 +1709,13 @@
         <v>1885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1715,13 +1724,13 @@
         <v>2225</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -1730,19 +1739,19 @@
         <v>4109</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -1751,13 +1760,13 @@
         <v>1621</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1766,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1781,19 +1790,19 @@
         <v>1621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -1802,13 +1811,13 @@
         <v>1366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1817,13 +1826,13 @@
         <v>2058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -1832,13 +1841,13 @@
         <v>3424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,16 +1912,16 @@
         <v>3300</v>
       </c>
       <c r="D22" s="7">
-        <v>3303815</v>
+        <v>3303814</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>5275</v>
@@ -1921,10 +1930,10 @@
         <v>3737471</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>118</v>
@@ -1957,13 +1966,13 @@
         <v>40329</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -1972,13 +1981,13 @@
         <v>18823</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
@@ -2008,10 +2017,10 @@
         <v>18696</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>128</v>
@@ -2026,10 +2035,10 @@
         <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -2038,19 +2047,19 @@
         <v>35270</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>6</v>
@@ -2059,13 +2068,13 @@
         <v>6447</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2074,13 +2083,13 @@
         <v>4659</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2089,19 +2098,19 @@
         <v>11106</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>5</v>
@@ -2110,13 +2119,13 @@
         <v>4461</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -2125,13 +2134,13 @@
         <v>14520</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2140,13 +2149,13 @@
         <v>18980</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,7 +2167,7 @@
         <v>3361</v>
       </c>
       <c r="D27" s="7">
-        <v>3373748</v>
+        <v>3373747</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>53</v>
@@ -2202,7 +2211,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4F1C9E-177D-41FD-B412-9049214928CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A84E90-B147-4C8B-93A2-177704731482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D97E9AA-7944-4294-BE35-111E61D03986}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94E194F5-6C77-4A33-94AD-D46065AF1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226494BF-E00E-49AD-BDE4-DA0DDB73DDE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673E6C32-4CD9-41D1-AF5B-755F7D62A9F4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P79_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A84E90-B147-4C8B-93A2-177704731482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D02202-B967-4668-A16A-D5AA6910D310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94E194F5-6C77-4A33-94AD-D46065AF1FBD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C97CC0F-D82D-40DC-9640-E3DB5DA79D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>96,13%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>Sí, por otra persona desconocida</t>
@@ -104,10 +104,10 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -116,343 +116,334 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona conocida</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Sí, por algún familiar</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Sí, por mi pareja/expareja</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona conocida</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Sí, por algún familiar</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Sí, por mi pareja/expareja</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>0,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673E6C32-4CD9-41D1-AF5B-755F7D62A9F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860F4281-5E8B-40BC-92C3-FA8D34E1B4EE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,10 +1102,10 @@
         <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1123,19 +1114,19 @@
         <v>6314</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1144,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1159,13 +1150,13 @@
         <v>1524</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -1174,19 +1165,19 @@
         <v>1524</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1195,13 +1186,13 @@
         <v>1701</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1210,13 +1201,13 @@
         <v>729</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1225,10 +1216,10 @@
         <v>2430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>52</v>
@@ -1335,7 +1326,7 @@
         <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1350,13 +1341,13 @@
         <v>22322</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -1365,13 +1356,13 @@
         <v>10400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -1380,13 +1371,13 @@
         <v>32722</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,10 +1395,10 @@
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -1416,13 +1407,13 @@
         <v>12460</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -1431,19 +1422,19 @@
         <v>24847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>4</v>
@@ -1455,10 +1446,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1467,13 +1458,13 @@
         <v>3135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1482,19 +1473,19 @@
         <v>7961</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -1503,13 +1494,13 @@
         <v>1394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -1518,13 +1509,13 @@
         <v>11733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -1533,13 +1524,13 @@
         <v>13127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1595,7 +1586,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1607,13 +1598,13 @@
         <v>663824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>990</v>
@@ -1622,13 +1613,13 @@
         <v>702234</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>1661</v>
@@ -1637,13 +1628,13 @@
         <v>1366058</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,13 +1649,13 @@
         <v>3154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1673,13 +1664,13 @@
         <v>6544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1688,13 +1679,13 @@
         <v>9698</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,13 +1700,13 @@
         <v>1885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1724,13 +1715,13 @@
         <v>2225</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -1739,19 +1730,19 @@
         <v>4109</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -1760,13 +1751,13 @@
         <v>1621</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1775,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1790,19 +1781,19 @@
         <v>1621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -1811,13 +1802,13 @@
         <v>1366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1826,13 +1817,13 @@
         <v>2058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -1841,13 +1832,13 @@
         <v>3424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,16 +1903,16 @@
         <v>3300</v>
       </c>
       <c r="D22" s="7">
-        <v>3303814</v>
+        <v>3303815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>5275</v>
@@ -1930,10 +1921,10 @@
         <v>3737471</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>118</v>
@@ -1966,13 +1957,13 @@
         <v>40329</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -1981,13 +1972,13 @@
         <v>18823</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
@@ -2017,10 +2008,10 @@
         <v>18696</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>128</v>
@@ -2035,10 +2026,10 @@
         <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -2047,19 +2038,19 @@
         <v>35270</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>6</v>
@@ -2068,13 +2059,13 @@
         <v>6447</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2083,13 +2074,13 @@
         <v>4659</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2098,19 +2089,19 @@
         <v>11106</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>5</v>
@@ -2119,13 +2110,13 @@
         <v>4461</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -2134,13 +2125,13 @@
         <v>14520</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2149,13 +2140,13 @@
         <v>18980</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,7 +2158,7 @@
         <v>3361</v>
       </c>
       <c r="D27" s="7">
-        <v>3373747</v>
+        <v>3373748</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>53</v>
@@ -2211,7 +2202,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D02202-B967-4668-A16A-D5AA6910D310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54286604-9947-486A-B04E-0D4048C62C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C97CC0F-D82D-40DC-9640-E3DB5DA79D4D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EC4D4466-F8EC-48CA-9B44-84115743DC68}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="132">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -71,379 +71,364 @@
     <t>No</t>
   </si>
   <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona desconocida</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona conocida</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Sí, por algún familiar</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Sí, por mi pareja/expareja</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>99,28%</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona desconocida</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona conocida</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Sí, por algún familiar</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>Sí, por mi pareja/expareja</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>0,45%</t>
   </si>
   <si>
     <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860F4281-5E8B-40BC-92C3-FA8D34E1B4EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D517231F-D060-4DD2-8812-EEB1A910707B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -979,7 +964,7 @@
         <v>671</v>
       </c>
       <c r="D4" s="7">
-        <v>520656</v>
+        <v>496194</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -994,7 +979,7 @@
         <v>1414</v>
       </c>
       <c r="I4" s="7">
-        <v>827838</v>
+        <v>748322</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1009,7 +994,7 @@
         <v>2085</v>
       </c>
       <c r="N4" s="7">
-        <v>1348494</v>
+        <v>1244516</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1030,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>14853</v>
+        <v>12978</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1045,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1880</v>
+        <v>1647</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1060,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>16733</v>
+        <v>14626</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1081,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>4424</v>
+        <v>4126</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1096,37 +1081,37 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1890</v>
+        <v>1648</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>6314</v>
+        <v>5774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1135,88 +1120,88 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1524</v>
+        <v>1299</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1524</v>
+        <v>1299</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1701</v>
+        <v>1640</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>2430</v>
+        <v>2321</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>51</v>
@@ -1234,7 +1219,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>53</v>
@@ -1249,7 +1234,7 @@
         <v>1423</v>
       </c>
       <c r="I9" s="7">
-        <v>833860</v>
+        <v>753597</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1264,7 +1249,7 @@
         <v>2114</v>
       </c>
       <c r="N9" s="7">
-        <v>1375494</v>
+        <v>1268535</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>53</v>
@@ -1287,7 +1272,7 @@
         <v>1958</v>
       </c>
       <c r="D10" s="7">
-        <v>2119334</v>
+        <v>2249987</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
@@ -1302,7 +1287,7 @@
         <v>2871</v>
       </c>
       <c r="I10" s="7">
-        <v>2207401</v>
+        <v>2200238</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>58</v>
@@ -1317,7 +1302,7 @@
         <v>4829</v>
       </c>
       <c r="N10" s="7">
-        <v>4326735</v>
+        <v>4450225</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>61</v>
@@ -1326,7 +1311,7 @@
         <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,46 +1323,46 @@
         <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>22322</v>
+        <v>21113</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>10400</v>
+        <v>9193</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>32722</v>
+        <v>30306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1389,73 +1374,73 @@
         <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>12388</v>
+        <v>11509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>12460</v>
+        <v>10782</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
       </c>
       <c r="N12" s="7">
-        <v>24847</v>
+        <v>22291</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>4826</v>
+        <v>4741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>3135</v>
+        <v>2962</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>80</v>
@@ -1464,73 +1449,73 @@
         <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>7961</v>
+        <v>7703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1394</v>
+        <v>1370</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>11733</v>
+        <v>10688</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>13127</v>
+        <v>12058</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,7 +1527,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160264</v>
+        <v>2288720</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>53</v>
@@ -1557,7 +1542,7 @@
         <v>2914</v>
       </c>
       <c r="I15" s="7">
-        <v>2245128</v>
+        <v>2233863</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -1572,7 +1557,7 @@
         <v>4904</v>
       </c>
       <c r="N15" s="7">
-        <v>4405392</v>
+        <v>4522583</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -1586,7 +1571,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1595,46 +1580,46 @@
         <v>671</v>
       </c>
       <c r="D16" s="7">
-        <v>663824</v>
+        <v>637681</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>990</v>
       </c>
       <c r="I16" s="7">
-        <v>702234</v>
+        <v>649521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1661</v>
       </c>
       <c r="N16" s="7">
-        <v>1366058</v>
+        <v>1287201</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,46 +1631,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>3154</v>
+        <v>3099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>6544</v>
+        <v>6022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>9698</v>
+        <v>9121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,67 +1682,67 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1885</v>
+        <v>1820</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2225</v>
+        <v>1981</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>4109</v>
+        <v>3802</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1621</v>
+        <v>1658</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1766,79 +1751,79 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1621</v>
+        <v>1658</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>2058</v>
+        <v>2246</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>3424</v>
+        <v>3604</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,7 +1835,7 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>671849</v>
+        <v>645617</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>53</v>
@@ -1865,7 +1850,7 @@
         <v>1003</v>
       </c>
       <c r="I21" s="7">
-        <v>713061</v>
+        <v>659769</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -1880,7 +1865,7 @@
         <v>1683</v>
       </c>
       <c r="N21" s="7">
-        <v>1384910</v>
+        <v>1305386</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>53</v>
@@ -1903,13 +1888,13 @@
         <v>3300</v>
       </c>
       <c r="D22" s="7">
-        <v>3303815</v>
+        <v>3383862</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>116</v>
@@ -1918,13 +1903,13 @@
         <v>5275</v>
       </c>
       <c r="I22" s="7">
-        <v>3737471</v>
+        <v>3598080</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>118</v>
@@ -1933,7 +1918,7 @@
         <v>8575</v>
       </c>
       <c r="N22" s="7">
-        <v>7041286</v>
+        <v>6981942</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>119</v>
@@ -1954,46 +1939,46 @@
         <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>40329</v>
+        <v>37190</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
       </c>
       <c r="I23" s="7">
-        <v>18823</v>
+        <v>16862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
       </c>
       <c r="N23" s="7">
-        <v>59153</v>
+        <v>54053</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,148 +1990,148 @@
         <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>18696</v>
+        <v>17455</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
       </c>
       <c r="I24" s="7">
-        <v>16574</v>
+        <v>14411</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
       </c>
       <c r="N24" s="7">
-        <v>35270</v>
+        <v>31866</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>6447</v>
+        <v>6399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>4659</v>
+        <v>4261</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>11106</v>
+        <v>10660</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>4461</v>
+        <v>4369</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
       </c>
       <c r="I26" s="7">
-        <v>14520</v>
+        <v>13614</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
       </c>
       <c r="N26" s="7">
-        <v>18980</v>
+        <v>17983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,7 +2143,7 @@
         <v>3361</v>
       </c>
       <c r="D27" s="7">
-        <v>3373748</v>
+        <v>3449276</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>53</v>
@@ -2173,7 +2158,7 @@
         <v>5340</v>
       </c>
       <c r="I27" s="7">
-        <v>3792048</v>
+        <v>3647228</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>53</v>
@@ -2188,7 +2173,7 @@
         <v>8701</v>
       </c>
       <c r="N27" s="7">
-        <v>7165796</v>
+        <v>7096504</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>53</v>
@@ -2202,7 +2187,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
